--- a/0.EJEMPLOS_EXAMPLES/FastTest PlugIn - DataBase_Examples - Spanish.xlsx
+++ b/0.EJEMPLOS_EXAMPLES/FastTest PlugIn - DataBase_Examples - Spanish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\Desktop\FastTest_PlugIn_V78\0.EJEMPLOS_EXAMPLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\Desktop\FTP_81\1. EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C8F27-EA06-4EB9-85DC-A5A319B3EE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0281B5-E1EC-49DD-9903-D8A05CD886BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INICIO" sheetId="6" r:id="rId1"/>
@@ -630,7 +630,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="972">
   <si>
     <t>MILAGROS HUERTA GÓMEZ DE MERODIO</t>
   </si>
@@ -3600,7 +3600,7 @@
     <t>El texto es opcional</t>
   </si>
   <si>
-    <t>PRUEBA</t>
+    <t>Some questions</t>
   </si>
   <si>
     <t>1. Caballo de Santiago =&amp;gt; {1:SHORTANSWER:%100%Blanco#Muy bien~%0%Negro#Debes leer bien~%0%Marrón#Debes leer bien}&lt;br/&gt; 
@@ -3608,6 +3608,20 @@
 3. Marca los Colores:&lt;br/&gt; {1:MCHS:=Blanco#Muy bien~=Silla#Muy bien~%-50%Mesa~%-50%Suelo}&lt;br/&gt; 
 4. Marca los Colores:&lt;br/&gt; {1:MRHS:=Blanco#Muy bien~=Negro#Muy bien~%-50%Mesa~%-50%Silla}&lt;br/&gt; 
 5. Marca los Colores:&lt;br/&gt; {1:MRS:=Blanco#Muy bien~=Naranja#Correcto~=Azul~%-50%Mesa~%-50%Silla#No es un color~%-50%Boli}</t>
+  </si>
+  <si>
+    <t>Imágenes y Formulas</t>
+  </si>
+  <si>
+    <t>Selecciona la fórmula correcta: [[[{1:MCVS:~%100%\(\frac{\cos^2(x)\}{x-1\}\)#OK~%0%\(-\frac{\cos^2(x)\}{x-1\}\)#~%0%\(\frac{\cos(x)\}{x-1\}-\frac{\sin(x)\}{(x-1)^2\}\)#}]]]&lt;br&gt;
+Selecciona la imágen correcta: [[[{1:MCVS:~%100%&lt;img src = "https://dl.dropboxusercontent.com/s/oh1ssro2fay57yo/Alumno_hablando_rapido.gif" width = "" height = "100"&gt;#OK~%0%&lt;img src = "https://dl.dropboxusercontent.com/s/2smr0aec6oujybp/Antonio_hablando_izq_rapido.gif" width = "" height = "120"&gt;#NO~%0%&lt;img src = "https://dl.dropboxusercontent.com/s/qfxkf5guj4pjibp/Profe_hablando_rapido.gif" width = "" height = "100"&gt;#NO}]]]</t>
+  </si>
+  <si>
+    <t>Fórmulas</t>
+  </si>
+  <si>
+    <t>Selecciona la fórmula correcta: &lt;br&gt;
+{1:MCHS:~%100%\(\frac{\cos^2(x)\}{x-1\}\)#~%0%\(-\frac{\cos^2(x)\}{x-1\}\)#}&lt;br&gt;</t>
   </si>
 </sst>
 </file>
@@ -4466,7 +4480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5236,61 +5250,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5313,6 +5272,9 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5328,21 +5290,142 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="348">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6381,36 +6464,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8194,20 +8247,6 @@
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FF005877"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15602,10 +15641,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="MENU">
+        <xdr:cNvPr id="2" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652995F8-911C-4DCC-BFDE-18A844C10A6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C708AEC-2EF6-49D5-ABAE-AFF8A0E8948D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15621,10 +15660,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="FONDO BLANCO">
+          <xdr:cNvPr id="3" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A32D1AD-9634-82DC-FF76-AA1B4B313291}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA223F18-D779-AA73-7EB6-5EE0D7DA1166}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15672,10 +15711,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="FTP-MOODLE">
+          <xdr:cNvPr id="15" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0E3F40-7831-3FB0-0962-7A0B778E1859}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E72D145-13E7-8CB6-C8DA-64149D40BF08}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15691,10 +15730,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="35" name="Moodle">
+            <xdr:cNvPr id="27" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9ABC2B0-DD3E-99FC-804B-5A0FA36D7174}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6DC1EF-E7F9-EFCE-829B-8E1F14C26D8D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15719,10 +15758,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="36" name="FTP">
+            <xdr:cNvPr id="28" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA470E1-F4DA-6732-5977-DAA06FD9B490}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4017BF2B-2DD2-163C-AD72-2C081F7097C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15748,11 +15787,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="DICCIONARIO">
+          <xdr:cNvPr id="16" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBE43D0-E0A7-20C6-4702-7582F6BE30E5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C92BD7-DB40-0380-945B-39426A40739A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15800,11 +15839,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="INICIO">
+          <xdr:cNvPr id="17" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884A7CC4-D0E1-C088-2C04-231F1D1C5C00}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A857109-0B9E-2191-564A-3C962CD832BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15852,10 +15891,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="18" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C4FF12-B8A4-2A40-3FC6-BEB4A31858F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642AC39B-C5D6-171A-0043-ADBCB9B019BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15871,11 +15910,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="OM">
+            <xdr:cNvPr id="19" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4217BED3-68A8-2ABB-EE41-A83B095AAD43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEE3E61-73B5-6BC4-2438-7099EF2AE984}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15923,11 +15962,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="O2">
+            <xdr:cNvPr id="20" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42BD4F2-3855-064F-0954-3CF2DCC87ED0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD22B59-9E3C-B366-5E0C-F94B239C3FFF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15975,11 +16014,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="VF">
+            <xdr:cNvPr id="21" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F614AB0F-234F-A105-A21E-2C75DAE5876C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85615DE5-EB16-75BE-B929-B0B2FA515EBC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16027,11 +16066,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="EM">
+            <xdr:cNvPr id="22" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D484B2B-423F-C633-0AFE-9C6DF00CEAEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0784F9D5-40BE-E2E9-9B34-A7E1B7F78B31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16079,11 +16118,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="RC">
+            <xdr:cNvPr id="23" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D1C7E4-4B2E-3849-C0AE-DA4D841819B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9133426-A9F1-FDBB-D5BC-7A7BAC0C676C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16131,11 +16170,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="PP">
+            <xdr:cNvPr id="24" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DABB53B-BECF-8A54-D861-081F84BA86DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643E8319-349F-B85E-9419-EE2D21613DCB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16183,11 +16222,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="EN">
+            <xdr:cNvPr id="25" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB048C99-ECFF-9749-9A31-D642DB02056F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A8E328-6C17-E157-C926-7499AFCFEC2F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16235,11 +16274,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="CL">
+            <xdr:cNvPr id="26" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B36D06-E460-58EA-75A6-54A0E80212B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADE066D-01A7-4BB7-F3FA-C312665FF06F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16365,10 +16404,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="MENU">
+        <xdr:cNvPr id="16" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC6EDE5-1AE1-4BFC-AF12-893B1A34C1BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196B32A8-B4B3-4DFD-B9F7-01F28198F247}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16384,10 +16423,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="FONDO BLANCO">
+          <xdr:cNvPr id="17" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACEB20F-85C7-90BF-FFA6-15237A144878}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1571571E-FBB0-43EE-2A90-84903B11ED9E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16435,10 +16474,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="FTP-MOODLE">
+          <xdr:cNvPr id="18" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD0685C-B8B3-CB79-A47D-08187FCD8CBF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A6BA1B-A130-C97F-D53A-0C4E4E995544}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16454,10 +16493,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Moodle">
+            <xdr:cNvPr id="30" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680EF89F-D3E8-CAE3-C3E4-858777B2D501}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302F1EB7-ECA8-5A0C-058D-7787FCECEA1A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16482,10 +16521,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="FTP">
+            <xdr:cNvPr id="31" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FABF1D3-50E5-EB7E-828B-9EBCDB4166E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09CFB45-2D71-4150-7A6A-C568F3A4112C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16511,11 +16550,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="DICCIONARIO">
+          <xdr:cNvPr id="19" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E504AC-B225-90B7-783F-CA1F9E8FC41D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048A8CB7-AB59-22AC-5FC2-B633940A3F84}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16563,11 +16602,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="INICIO">
+          <xdr:cNvPr id="20" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41A40CF-7BAD-6587-6311-8109D8B50169}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F014122-8DB7-B7D4-AE0A-F596B295653C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16615,10 +16654,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="21" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EF39A9-71F3-A363-E964-B90F9DD94C5D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA079406-5CE9-EF74-028D-4B1C8D39297F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16634,11 +16673,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="OM">
+            <xdr:cNvPr id="22" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762E515B-D66F-D8BF-34C9-B6296FA2CF79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19724EE2-2D95-D1C9-6B22-1D8793759A52}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16686,11 +16725,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="O2">
+            <xdr:cNvPr id="23" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5175CF93-9BA7-A465-1A3C-67752FF351A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BCB8BA-EDAB-804E-E27C-E6E9D89E8AC9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16738,11 +16777,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="VF">
+            <xdr:cNvPr id="24" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED8271A-75C4-5363-47FD-D600D1BC1C42}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2270863D-4BEB-277D-FECC-921549315015}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16790,11 +16829,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="EM">
+            <xdr:cNvPr id="25" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D11C25C-2F5B-67BA-6088-E2E42D4444EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0CD89D-EF3A-C29E-9AFE-A464FAB21ED3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16842,11 +16881,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="RC">
+            <xdr:cNvPr id="26" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1830FCC3-F127-09D1-0C63-BB901FEB015C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E48136-161F-88E0-06C4-D635D74FE1D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16894,11 +16933,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="PP">
+            <xdr:cNvPr id="27" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA77B59A-9CCB-3975-7671-99359D87208D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89DE7D7-78D1-2D1D-9CCC-4778CCD8CFEC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16946,11 +16985,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="EN">
+            <xdr:cNvPr id="28" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39399C2A-5F5C-3E76-BF02-A11031A6B921}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BAC64B-1682-36CA-3D60-C19283EFAFB2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16998,11 +17037,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CL">
+            <xdr:cNvPr id="29" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D54A7F7-FAFC-CDD8-5B94-FC0FB8392B3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06047B66-1D57-5B5D-085D-9C6254A0CFCD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17128,10 +17167,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="MENU">
+        <xdr:cNvPr id="16" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B466AD0-B8DA-49D9-96E8-996B4B68FA97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E22B5A-B60F-4DD4-BA37-426149675AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17147,10 +17186,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="FONDO BLANCO">
+          <xdr:cNvPr id="17" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9236AD3D-B1EC-C12A-4313-759D96154083}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71187D1F-24EE-02BD-2BA9-53D48C8A4E37}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17198,10 +17237,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="FTP-MOODLE">
+          <xdr:cNvPr id="18" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C09BF4-716C-D5FA-73A3-39E50639FA99}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9710BF1A-63D2-2CDE-6CC0-BBB162FF9793}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17217,10 +17256,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Moodle">
+            <xdr:cNvPr id="30" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD1F20D-6991-DAC0-0C0D-FEFF7AFA7CB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F42221B-71AF-9750-6168-516C1BAB6719}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17245,10 +17284,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="FTP">
+            <xdr:cNvPr id="31" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33378B1F-D77E-9BC4-13C7-8AA0A5DEB9E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F87CA7-F370-B075-784F-E59FA3675ED7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17274,11 +17313,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="DICCIONARIO">
+          <xdr:cNvPr id="19" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F69E77A-A1B1-9944-3270-942402A83987}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20148A0-15D8-B5EF-C7E1-6A2F0AE436F3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17326,11 +17365,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="INICIO">
+          <xdr:cNvPr id="20" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506D1C52-BF58-43C8-65AD-3838C1FB9005}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A498867-D6FA-DCE4-DEAE-FA50FD84F37C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17378,10 +17417,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="21" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53F133A-94EC-D8B2-453B-A5096091EEEA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2499E444-D251-171C-9823-6A14F3BBD753}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17397,11 +17436,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="OM">
+            <xdr:cNvPr id="22" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D27DB3-C1DA-D4CD-890C-D53ACA6D5F64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08C1F2F-6C3E-27E9-AC95-C5BD06329886}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17449,11 +17488,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="O2">
+            <xdr:cNvPr id="23" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DC4A44-6B9C-90B1-5B47-6964C9D64A38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A3F4D4-A828-695D-F4B9-7903C7F8AA9A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17501,11 +17540,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="VF">
+            <xdr:cNvPr id="24" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F0CB82-B1A9-4DC7-84D9-372F1D5A02E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D5030B-B41F-A43E-CFA6-1CF8C951E6A5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17553,11 +17592,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="EM">
+            <xdr:cNvPr id="25" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBED940-5D18-0EB9-A9AB-002592D3AB44}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484D413D-02D5-C737-4746-73144365AE73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17605,11 +17644,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="RC">
+            <xdr:cNvPr id="26" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B54ACBC-3E90-5785-B89C-4EF648BB41DC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96503DEF-24F3-CCD9-C966-70E51EFBEA2F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17657,11 +17696,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="PP">
+            <xdr:cNvPr id="27" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D72AED-B118-044F-B32F-640559E15BE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147D5DE1-6126-C5DD-C218-56587810E23A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17709,11 +17748,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="EN">
+            <xdr:cNvPr id="28" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B47383-10F7-C479-C6DD-50B8A69230EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8593670D-AB65-C164-D772-75C74EB24CD9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17761,11 +17800,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CL">
+            <xdr:cNvPr id="29" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77D6D25-356F-BE8E-6AB7-72E5E5F018DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D74C39-0087-AD36-9638-6534B6051303}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17891,10 +17930,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="MENU">
+        <xdr:cNvPr id="16" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B467CDBA-296D-461B-9C8D-DEA3B2E60460}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1019C18-24B8-4542-9058-947CA6F4D06F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17910,10 +17949,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="FONDO BLANCO">
+          <xdr:cNvPr id="17" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A62C90-F812-CA8B-AB59-EC6B79B7ED2D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3708BB3-CF88-742B-1D1E-4BC1E9932BF4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17961,10 +18000,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="FTP-MOODLE">
+          <xdr:cNvPr id="18" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9937D2-52DA-1721-0F6B-53F684E0258E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC339E6B-8657-4D0D-3DD5-CF9E58155560}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17980,10 +18019,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Moodle">
+            <xdr:cNvPr id="30" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76E5450-87A7-CB43-99B7-CA02896D26C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55AA1147-D573-E03A-222D-0FC112079612}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18008,10 +18047,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="FTP">
+            <xdr:cNvPr id="31" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA64456-11D0-F941-DD02-995183B4CF35}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436D0B59-821E-6C38-77FC-32D666D042C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18037,11 +18076,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="DICCIONARIO">
+          <xdr:cNvPr id="19" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AAE4D3-8373-94CE-1522-D8DD6990323C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F16383-E013-3243-297C-A68393946C99}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18089,11 +18128,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="INICIO">
+          <xdr:cNvPr id="20" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137D1F40-4AE4-21CE-6374-2E169F0520ED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59A2D14-61F7-2C8C-77E1-A3888D07F556}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18141,10 +18180,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="21" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40916050-C023-0059-B00E-7887515C0EAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7B6A5F-AD4E-1D8E-B104-BC31878B8BFF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18160,11 +18199,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="OM">
+            <xdr:cNvPr id="22" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001F485E-D4D4-F8D4-F9E8-ECDA7039621F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54D8E37-66B4-B026-F8F6-F938235FB93A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18212,11 +18251,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="O2">
+            <xdr:cNvPr id="23" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C686B9F-5229-9969-B209-2117828E00D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F532E687-ACC4-4E3B-D9AA-AA7A75D3D10B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18264,11 +18303,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="VF">
+            <xdr:cNvPr id="24" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5132C1D4-8F88-E865-B713-76B185BB66A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ADAD94-1703-AFAA-EDD5-A783880B4910}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18316,11 +18355,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="EM">
+            <xdr:cNvPr id="25" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A871BD4-6D22-0764-9066-20175567E603}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C83DAC-ABCF-9009-FB85-B62881BB2D90}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18368,11 +18407,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="RC">
+            <xdr:cNvPr id="26" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84EC3B1-D8A0-D513-CF5F-335DE48C43AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64495317-DFBF-99AE-7A4E-224DB289389A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18420,11 +18459,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="PP">
+            <xdr:cNvPr id="27" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28B379C-0E7E-A902-011E-441214217FA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443DB84F-0146-4A35-AFE5-6E2E84C710CA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18472,11 +18511,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="EN">
+            <xdr:cNvPr id="28" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3993BBC4-FA36-147C-EFDB-074EE689CBBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A04E66-DE2E-F99A-DD8C-D172687E73AC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18524,11 +18563,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CL">
+            <xdr:cNvPr id="29" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DCC4D6-833E-C0F2-2A92-83113F0F2B5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93EEA83-21DE-D548-3D66-21C141A032C7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18654,10 +18693,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="MENU">
+        <xdr:cNvPr id="16" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17873629-0592-4E2C-8702-D4461B2E8F95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26ABC3B-7975-46AF-AF55-ECCEEF6DDB64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18673,10 +18712,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="FONDO BLANCO">
+          <xdr:cNvPr id="17" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A685D3-9FB2-346B-5710-3A3C28700665}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65855BFA-742D-0C1E-DD75-0CA1EBEA5DCC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18724,10 +18763,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="FTP-MOODLE">
+          <xdr:cNvPr id="18" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31E8E54-5C35-4838-263A-A9F73E46DC28}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B2BBA9-9CC7-0E8D-9254-2048E2C4493C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18743,10 +18782,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Moodle">
+            <xdr:cNvPr id="30" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7AEB97-4ACE-ED2A-3FD0-516DE39B35EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E313A4B-FE54-2858-EDF7-80A31159C245}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18771,10 +18810,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="FTP">
+            <xdr:cNvPr id="31" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688B47F1-BDCD-503A-D722-0D70F4BDFB52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9836296-EFFD-0819-3D5D-6542912445D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18800,11 +18839,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="DICCIONARIO">
+          <xdr:cNvPr id="19" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5414375B-398C-DDCD-157A-A085AF6324EF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710F608B-B6C4-52AF-93BE-0527590E30CB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18852,11 +18891,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="INICIO">
+          <xdr:cNvPr id="20" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE764EE-B5FD-65C1-6F1A-66CFC751830D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C4FEA0-AF99-EE25-8797-36ACD61D608A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18904,10 +18943,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="21" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D48155-BE49-0D43-1584-F1954B8DA366}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F23F42C-3646-361D-432E-8B61CD76A45D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18923,11 +18962,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="OM">
+            <xdr:cNvPr id="22" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63098759-A9D4-EF37-952D-DCA5C319541C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB3188E-4891-EDAC-5D25-7E22FBF17D9D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18975,11 +19014,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="O2">
+            <xdr:cNvPr id="23" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE55E101-02E5-438C-C659-DD443D23EFA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379677A0-74EE-F535-5C29-046089FF9F07}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19027,11 +19066,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="VF">
+            <xdr:cNvPr id="24" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DB1878-0107-8463-267E-CE6E2738380E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA5396B-C692-7E6A-FB8E-A9577FC01494}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19079,11 +19118,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="EM">
+            <xdr:cNvPr id="25" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A95079-8A4A-EC4A-6DBA-D2FE71AF552D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D639BA-9EC0-90F7-3B9E-BA9C8019A4E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19131,11 +19170,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="RC">
+            <xdr:cNvPr id="26" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E80461-B320-AF0D-4FC0-CA002DCE0210}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1D345-793A-ADD3-29BD-7A7F8AA3E7D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19183,11 +19222,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="PP">
+            <xdr:cNvPr id="27" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166B77C8-F84C-5E2C-405A-469BD1648515}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FDB793-ACE3-CBEC-F2C6-9661B928F4A3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19235,11 +19274,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="EN">
+            <xdr:cNvPr id="28" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73936681-3612-6CAB-BC33-2F5FBB0E9308}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3A20AE-1704-9310-5EE3-EC1E507CD759}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19287,11 +19326,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CL">
+            <xdr:cNvPr id="29" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42E28D0-6B13-B229-FF44-609C624BD96C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD29E0B-0811-988A-4BE2-A7A0801EB9BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19417,10 +19456,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="MENU">
+        <xdr:cNvPr id="16" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A48975-AA85-47AE-9850-BC25D8E02023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A29145A-5A79-4C89-A5DC-0511335D7AB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19436,10 +19475,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="FONDO BLANCO">
+          <xdr:cNvPr id="17" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA16C04-C3A0-3AF2-4A06-E73B0FC238C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA6790F-631C-9C29-6F0E-C26812F27095}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19487,10 +19526,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="FTP-MOODLE">
+          <xdr:cNvPr id="18" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFEECA0-DE2F-B7A0-A330-3CD0224DF19D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E828A7-7F70-3656-4804-F62D26F54695}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19506,10 +19545,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Moodle">
+            <xdr:cNvPr id="30" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35527B13-D329-C705-140A-8F616254E7AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0382C5AE-9563-2F64-6CD9-D2917D8248F2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19534,10 +19573,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="FTP">
+            <xdr:cNvPr id="31" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D088487-AD84-8F03-BAEB-A0B0F6D82EBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31888F9-A045-7FB8-7F44-9138ACBC2F63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19563,11 +19602,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="DICCIONARIO">
+          <xdr:cNvPr id="19" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57049842-A47A-FAA1-F9C4-7570AD81217B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A97A452-1433-0CC7-85C3-201E2C606E5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19615,11 +19654,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="INICIO">
+          <xdr:cNvPr id="20" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D11ED7-4DA2-A159-B512-4F1908FF163F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5162182-0D7E-6546-3C0B-E54F681EFFC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19667,10 +19706,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="21" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5116AA22-8335-C167-3A53-B9B9C1E09ADB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91599C1-150A-F0E8-5EC2-49F166009A73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19686,11 +19725,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="OM">
+            <xdr:cNvPr id="22" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D32E6C-8128-D367-C1C7-D5A7DF821D4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD24B57A-FA08-B46A-6410-707FD6252B13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19738,11 +19777,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="O2">
+            <xdr:cNvPr id="23" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EC450C-D03B-AB94-CF2B-93294EFB52D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860E777E-9852-7E96-E0C5-6CDBFC96BC88}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19790,11 +19829,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="VF">
+            <xdr:cNvPr id="24" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB87D17-6594-FADE-42FC-D92315D5B584}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E6A4F6-6D0A-8600-7893-78C96A7FCD68}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19842,11 +19881,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="EM">
+            <xdr:cNvPr id="25" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2900B20A-99F0-A6A4-0C63-5D1B33A85707}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124576A9-1CBF-DF0F-5085-591174913DD4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19894,11 +19933,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="RC">
+            <xdr:cNvPr id="26" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90E84BE-804D-5DFF-FD02-4340C6BB706C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649227EA-89F7-40AB-7B8C-7DC713A7C6E0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19946,11 +19985,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="PP">
+            <xdr:cNvPr id="27" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F595E6-C3CC-0316-8959-54D11D984BA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2171877E-5F86-67E4-4F88-5F5A25433857}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19998,11 +20037,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="EN">
+            <xdr:cNvPr id="28" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1E2A28-6756-691D-31BA-FC4F5266C445}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBABEB11-7BF6-7D62-929D-3906B7A35E3A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20050,11 +20089,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CL">
+            <xdr:cNvPr id="29" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4B3F71-D900-BC69-6B52-CE1D0286EBDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5801B3CD-3183-71F2-FF62-2B8BD3AA45D6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20180,10 +20219,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="MENU">
+        <xdr:cNvPr id="15" name="MENU">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6022C338-6B42-4ECB-9AE2-B2638E24CF4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E255BB8-F51D-403F-A974-ECF978A33FCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20199,10 +20238,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="FONDO BLANCO">
+          <xdr:cNvPr id="16" name="FONDO BLANCO">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0BD42A-D9C5-3934-AC8B-68D944E077DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD908CA-942C-09E1-24AB-B6F8EE73D1D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20250,10 +20289,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="FTP-MOODLE">
+          <xdr:cNvPr id="17" name="FTP-MOODLE">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F97CA11-2669-A5AF-174B-9682D249D17F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3EA76F-BCFF-F459-43EA-03765EED9046}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20269,10 +20308,10 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="33" name="Moodle">
+            <xdr:cNvPr id="30" name="Moodle">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC2AD54-91FE-9620-8C7B-1206930494F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490CECE3-3988-E1A6-051C-0615B834EBB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20297,10 +20336,10 @@
         </xdr:pic>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="FTP">
+            <xdr:cNvPr id="31" name="FTP">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F1DB80-C740-CACA-B01E-9438F2C6C4A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EE94A2-ECFF-92F7-07D0-FDF48B30ED21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20326,11 +20365,11 @@
       </xdr:grpSp>
       <xdr:sp macro="[0]!IR_DICCIONARIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="DICCIONARIO">
+          <xdr:cNvPr id="18" name="DICCIONARIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="DICTIONARY"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0E825F-75C9-DAAC-C7FD-428F59F39E5D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F106A641-C3D3-1DD9-01B4-09FB4B6C7752}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20378,11 +20417,11 @@
       </xdr:sp>
       <xdr:sp macro="[0]!IR_INICIO" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="INICIO">
+          <xdr:cNvPr id="20" name="INICIO">
             <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tooltip="INICIO / HOME"/>
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C6C628-0F34-8FE8-D656-6496392BC373}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6968AC27-51D2-6879-4B59-F9FE3ECAE025}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20430,10 +20469,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="TIPO PREGUNTAS">
+          <xdr:cNvPr id="21" name="TIPO PREGUNTAS">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1C376A-CAB8-F1D3-6FA9-88CE54E638CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9EA2E1-0A51-B056-1CA5-BCCA60AE6789}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20449,11 +20488,11 @@
         </xdr:grpSpPr>
         <xdr:sp macro="[0]!IR_OM" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="OM">
+            <xdr:cNvPr id="22" name="OM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="OM 1R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE3E6F5-FA43-C708-E809-D1E9B1616C64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3447CDF-0A53-305E-6D4E-8043D8818B78}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20501,11 +20540,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_O2" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="O2">
+            <xdr:cNvPr id="23" name="O2">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="OM +R"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFA2221-BCF7-7AA2-BC40-F08C52088184}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068B4F22-B0EA-FB87-CD6F-763C131B57D7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20553,11 +20592,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_VF" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="VF">
+            <xdr:cNvPr id="24" name="VF">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="VF"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C0ECEF-72E9-4674-BD32-5103591F5524}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED542926-EEC1-E730-B2B8-E7B63E3F5206}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20605,11 +20644,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_E" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="EM">
+            <xdr:cNvPr id="25" name="EM">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="EM"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F8860E-E4EE-07C4-1DC7-62A78037C11B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04040878-D364-7D27-85D6-8B52DC1EDA55}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20657,11 +20696,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_RC" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="RC">
+            <xdr:cNvPr id="26" name="RC">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="RC"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0685B877-0901-B970-100F-87B3CCB19670}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D412B3DA-E6A6-C25C-071A-5B3219055381}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20709,11 +20748,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_PP" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="PP">
+            <xdr:cNvPr id="27" name="PP">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tooltip="PP"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29992A27-FC30-0B4C-B7BF-5900243940BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B177F0-76B9-64B2-E7B3-1F17181AE26F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20761,11 +20800,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_EN" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="EN">
+            <xdr:cNvPr id="28" name="EN">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="EN"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B940083-3931-23D1-928F-016721FEFBD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49FAD67B-870F-3BEF-7EC9-326C59242C95}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20813,11 +20852,11 @@
         </xdr:sp>
         <xdr:sp macro="[0]!IR_CL" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="CL">
+            <xdr:cNvPr id="29" name="CL">
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tooltip="CL"/>
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9F202F-6698-B021-7555-771106BCC2FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C3AA3A-490E-A98A-9459-324593FEDAF6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20963,54 +21002,54 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_Menu" displayName="Tabla_Menu" ref="S2:AF30" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla_Menu" displayName="Tabla_Menu" ref="S2:AF30" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="S2:AF29" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="N Sub" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="N Sub" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>IF(Tabla_Menu[[#This Row],[Nivel]]=T2,0,COUNTIF(Tabla_Menu[Nivel],Tabla_Menu[[#This Row],[Nivel]]))</calculatedColumnFormula>
       <totalsRowFormula>COUNTIF(Tabla_Menu[N Sub],"&lt;&gt;0")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Nivel" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Nivel" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>IFERROR(INDIRECT(Tabla_Menu[[#This Row],[Nivel 1]]&amp;IDIOMA),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Nombre" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Nombre" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IFERROR(INDIRECT(Tabla_Menu[[#This Row],[Nivel 2]]&amp;IDIOMA)&amp;IF(Tabla_Menu[[#This Row],[Nivel]]="",""," "&amp;Tabla_Menu[[#This Row],['[Teclas']]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="On Action" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Face Id" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Begin Group" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Nivel 1" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Nivel 2" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="Teclas" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="HOJAS NO MUESTRA" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="N/A" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="On Action" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Face Id" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Begin Group" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Nivel 1" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0900-000008000000}" name="Nivel 2" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0900-00000B000000}" name="Teclas" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="HOJAS NO MUESTRA" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="N/A" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>IF(OR(Tabla_Menu[[#This Row],[Nivel]]="",IFERROR(SEARCH(MID(CELL("nombrearchivo"),FIND(".xlsm]",CELL("nombrearchivo"),1)+6,100),Tabla_Menu[[#This Row],[HOJAS NO MUESTRA]],1),0)&gt;0),"N/A","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="Num N/A" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="Num N/A" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>IF(Tabla_Menu[[#This Row],[N/A]]="",,COUNTIF(Tabla_Menu[Nivel &amp; Incluir],Tabla_Menu[[#This Row],[Nivel &amp; Incluir]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Nivel &amp; Incluir" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="Nivel &amp; Incluir" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabla_Menu[[#This Row],[Nivel]]&amp;Tabla_Menu[[#This Row],[N/A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="[Teclas]" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="[Teclas]" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Tabla_UCA" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_Comandos" displayName="Tabla_Comandos" ref="U37:W44" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla_Comandos" displayName="Tabla_Comandos" ref="U37:W44" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="11" tableBorderDxfId="12">
   <autoFilter ref="U37:W43" xr:uid="{00000000-0009-0000-0100-00000A000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="CommandBars" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="CommandBars" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
       <totalsRowFormula>COUNTA(Tabla_Comandos[CommandBars])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Cambio" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Activa/Des" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Cambio" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Activa/Des" dataDxfId="6" totalsRowDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21296,88 +21335,88 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_EN" displayName="Tabla_EN" ref="A4:AI6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla_EN" displayName="Tabla_EN" ref="A4:AI6" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A4:AI6" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="C1" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="C2" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Columna1" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Columna2" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Descripción" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="FastTest PlugIn - ENSAYO_x000a__x000a_Enunciado de la pregunta" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Formato de la Respuesta_x000a_Requerir texto" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Requerir texto" dataDxfId="108"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Tamaño de la caja de entrada" dataDxfId="107"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Permitir archivos adjuntos" dataDxfId="106"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Archivos adjuntos requeridos" dataDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Plantilla de Respuesta" dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Información para el evaluador" dataDxfId="103"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Columna3" dataDxfId="102"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Columna4" dataDxfId="101"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Columna5" dataDxfId="100"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="Columna6" dataDxfId="99"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="Columna7" dataDxfId="98"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="Columna8" dataDxfId="97"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="Columna9" dataDxfId="96"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0700-000015000000}" name="Columna10" dataDxfId="95"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0700-000016000000}" name="Columna11" dataDxfId="94"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="Columna12" dataDxfId="93"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="Columna13" dataDxfId="92"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="Columna14" dataDxfId="91"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="Columna15" dataDxfId="90"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0700-00001B000000}" name="Columna16" dataDxfId="89"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0700-00001C000000}" name="Columna17" dataDxfId="88"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0700-00001D000000}" name="Columna18" dataDxfId="87"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0700-00001E000000}" name="Columna19" dataDxfId="86"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0700-00001F000000}" name="Columna20" dataDxfId="85"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0700-000020000000}" name="Columna21" dataDxfId="84"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0700-000021000000}" name="Columna22" dataDxfId="83"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0700-000022000000}" name="Columna23" dataDxfId="82"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0700-000023000000}" name="Imagen" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="C1" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="C2" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Columna1" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Columna2" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Descripción" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="FastTest PlugIn - ENSAYO_x000a__x000a_Enunciado de la pregunta" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Formato de la Respuesta_x000a_Requerir texto" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Requerir texto" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="Tamaño de la caja de entrada" dataDxfId="109"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="Permitir archivos adjuntos" dataDxfId="108"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="Archivos adjuntos requeridos" dataDxfId="107"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Plantilla de Respuesta" dataDxfId="106"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="Información para el evaluador" dataDxfId="105"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="Columna3" dataDxfId="104"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="Columna4" dataDxfId="103"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="Columna5" dataDxfId="102"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="Columna6" dataDxfId="101"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="Columna7" dataDxfId="100"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="Columna8" dataDxfId="99"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0700-000014000000}" name="Columna9" dataDxfId="98"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0700-000015000000}" name="Columna10" dataDxfId="97"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0700-000016000000}" name="Columna11" dataDxfId="96"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0700-000017000000}" name="Columna12" dataDxfId="95"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0700-000018000000}" name="Columna13" dataDxfId="94"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="Columna14" dataDxfId="93"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="Columna15" dataDxfId="92"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0700-00001B000000}" name="Columna16" dataDxfId="91"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0700-00001C000000}" name="Columna17" dataDxfId="90"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0700-00001D000000}" name="Columna18" dataDxfId="89"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0700-00001E000000}" name="Columna19" dataDxfId="88"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0700-00001F000000}" name="Columna20" dataDxfId="87"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0700-000020000000}" name="Columna21" dataDxfId="86"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0700-000021000000}" name="Columna22" dataDxfId="85"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0700-000022000000}" name="Columna23" dataDxfId="84"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0700-000023000000}" name="Imagen" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_CL" displayName="Tabla_CL" ref="A4:AI5" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
-  <autoFilter ref="A4:AI5" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla_CL" displayName="Tabla_CL" ref="A4:AI7" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="A4:AI7" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="C1" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="C2" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Columna1" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Columna2" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Descripcion" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Enunciado" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Ancho RC" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Columna3" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ancho IM" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Columna5" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="Columna6" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Columna7" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="Columna8" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="Columna9" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="Columna10" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="Columna11" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="Columna12" dataDxfId="62"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="Columna13" dataDxfId="61"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="Columna14" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0800-000014000000}" name="Columna15" dataDxfId="59"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="Columna16" dataDxfId="58"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="Columna17" dataDxfId="57"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0800-000017000000}" name="Columna18" dataDxfId="56"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0800-000018000000}" name="Columna19" dataDxfId="55"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0800-000019000000}" name="Columna20" dataDxfId="54"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0800-00001A000000}" name="Columna21" dataDxfId="53"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0800-00001B000000}" name="Columna22" dataDxfId="52"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0800-00001C000000}" name="Columna23" dataDxfId="51"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0800-00001D000000}" name="Columna24" dataDxfId="50"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0800-00001E000000}" name="Columna25" dataDxfId="49"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0800-00001F000000}" name="Pista 1" dataDxfId="48"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0800-000020000000}" name="Pista 2" dataDxfId="47"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0800-000021000000}" name="Pista 3" dataDxfId="46"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0800-000022000000}" name="Pista 4" dataDxfId="45"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0800-000023000000}" name="Imagen" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="C1" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="C2" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Columna1" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Columna2" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Descripcion" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Enunciado" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Ancho RC" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Columna3" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="Ancho IM" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="Columna5" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0800-00000B000000}" name="Columna6" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="Columna7" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="Columna8" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="Columna9" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="Columna10" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="Columna11" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="Columna12" dataDxfId="64"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="Columna13" dataDxfId="63"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="Columna14" dataDxfId="62"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0800-000014000000}" name="Columna15" dataDxfId="61"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="Columna16" dataDxfId="60"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="Columna17" dataDxfId="59"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0800-000017000000}" name="Columna18" dataDxfId="58"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0800-000018000000}" name="Columna19" dataDxfId="57"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0800-000019000000}" name="Columna20" dataDxfId="56"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0800-00001A000000}" name="Columna21" dataDxfId="55"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0800-00001B000000}" name="Columna22" dataDxfId="54"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0800-00001C000000}" name="Columna23" dataDxfId="53"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0800-00001D000000}" name="Columna24" dataDxfId="52"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0800-00001E000000}" name="Columna25" dataDxfId="51"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0800-00001F000000}" name="Pista 1" dataDxfId="50"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0800-000020000000}" name="Pista 2" dataDxfId="49"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0800-000021000000}" name="Pista 3" dataDxfId="48"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0800-000022000000}" name="Pista 4" dataDxfId="47"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0800-000023000000}" name="Imagen" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21649,14 +21688,14 @@
   <sheetPr codeName="Hoja_00"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="116" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <pane xSplit="19" ySplit="46" topLeftCell="T47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.64453125" customWidth="1"/>
     <col min="2" max="2" width="2.64453125" customWidth="1"/>
@@ -21666,32 +21705,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="243" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="252" t="s">
+      <c r="B1" s="262" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
-      <c r="P1" s="253"/>
-      <c r="Q1" s="253"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="254"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="264"/>
     </row>
     <row r="2" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="263"/>
+      <c r="A2" s="244"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -21712,23 +21751,23 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A3" s="263"/>
+      <c r="A3" s="244"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="269" t="str">
+      <c r="G3" s="251" t="str">
         <f ca="1">INDIRECT("Z_IN_04_"&amp;IDIOMA)</f>
         <v>Esta Aplicación ha sido desarrollada, en la primera versión, por:</v>
       </c>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="269"/>
-      <c r="M3" s="269"/>
-      <c r="N3" s="269"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -21736,7 +21775,7 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="263"/>
+      <c r="A4" s="244"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -21757,125 +21796,125 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="263"/>
+      <c r="A5" s="244"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="268"/>
       <c r="H5" s="134"/>
-      <c r="I5" s="270" t="s">
+      <c r="I5" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="244"/>
-      <c r="P5" s="261" t="s">
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="269" t="s">
         <v>651</v>
       </c>
-      <c r="Q5" s="261"/>
-      <c r="R5" s="261"/>
+      <c r="Q5" s="269"/>
+      <c r="R5" s="269"/>
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="263"/>
+      <c r="A6" s="244"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
       <c r="H6" s="134"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="244"/>
-      <c r="O6" s="244"/>
-      <c r="P6" s="272" t="str">
+      <c r="N6" s="250"/>
+      <c r="O6" s="250"/>
+      <c r="P6" s="254" t="str">
         <f ca="1">INDIRECT("Z_IN_01_"&amp;IDIOMA)</f>
         <v>CANAL YOUTUBE</v>
       </c>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="272"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="254"/>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="263"/>
+      <c r="A7" s="244"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="268"/>
       <c r="H7" s="134"/>
-      <c r="I7" s="269" t="str">
+      <c r="I7" s="251" t="str">
         <f ca="1">INDIRECT("Z_IN_05_"&amp;IDIOMA)</f>
         <v>Universidad de Cádiz</v>
       </c>
-      <c r="J7" s="269"/>
-      <c r="K7" s="269"/>
-      <c r="L7" s="269"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="251"/>
+      <c r="L7" s="251"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="244"/>
-      <c r="O7" s="244"/>
-      <c r="P7" s="272"/>
-      <c r="Q7" s="272"/>
-      <c r="R7" s="272"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="250"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="254"/>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="263"/>
+      <c r="A8" s="244"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="268"/>
       <c r="H8" s="134"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="244"/>
-      <c r="O8" s="244"/>
+      <c r="N8" s="250"/>
+      <c r="O8" s="250"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="264"/>
+      <c r="A9" s="245"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="255" t="str">
+      <c r="C9" s="265" t="str">
         <f ca="1">INDIRECT("Z_IN_03_"&amp;IDIOMA)</f>
         <v>LEER CON ATENCIÓN</v>
       </c>
-      <c r="D9" s="255"/>
+      <c r="D9" s="265"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="268"/>
       <c r="H9" s="134"/>
-      <c r="I9" s="271" t="s">
+      <c r="I9" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="271"/>
-      <c r="K9" s="271"/>
-      <c r="L9" s="271"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="273" t="s">
+      <c r="N9" s="250"/>
+      <c r="O9" s="250"/>
+      <c r="P9" s="255" t="s">
         <v>831</v>
       </c>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="273"/>
+      <c r="Q9" s="255"/>
+      <c r="R9" s="255"/>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
@@ -21883,256 +21922,256 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="260"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="268"/>
       <c r="H10" s="134"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="244"/>
+      <c r="N10" s="250"/>
+      <c r="O10" s="250"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="246" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="256" t="str">
+      <c r="D11" s="266" t="str">
         <f ca="1">INDIRECT("Z_IN_06_"&amp;IDIOMA)</f>
         <v>1. Esta aplicación se ha desarrollado gracias a un Proyecto de Innovación Docente aprobado por la Unidad de Innovación Docente de la Universidad de Cádiz.
 2. El usuario final es aquel docente que quiera usar los CUESTIONARIOS de la plataforma Moodle. También la puede usar quien quiera tener sus Bancos de Preguntas almacenados en un mismo sitio y con orden.
 3. La aplicación sirve para facilitar la creación de un BANCO DE PREGUNTAS para los cuestionarios, el usuario final deberá repasar que las preguntas se importan bien (al menos las primeras veces) así como si ha rellenado los datos de manera adecuada, como si lo estuviera haciendo en Moodle.
 Pulsa sobre el TIPO DE PREGUNTA sobre el que quieres CONSULTAR las preguntas almacenadas.</v>
       </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="256"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="266"/>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="265"/>
+      <c r="A12" s="246"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="256"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="266"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="266"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="266"/>
+      <c r="Q12" s="266"/>
+      <c r="R12" s="266"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A13" s="265"/>
+      <c r="A13" s="246"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="256"/>
-      <c r="R13" s="256"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="266"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="266"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="266"/>
+      <c r="Q13" s="266"/>
+      <c r="R13" s="266"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="256"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="266"/>
+      <c r="H14" s="266"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="266"/>
+      <c r="M14" s="266"/>
+      <c r="N14" s="266"/>
+      <c r="O14" s="266"/>
+      <c r="P14" s="266"/>
+      <c r="Q14" s="266"/>
+      <c r="R14" s="266"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="256"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="266"/>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266"/>
+      <c r="P15" s="266"/>
+      <c r="Q15" s="266"/>
+      <c r="R15" s="266"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="256"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="266"/>
+      <c r="L16" s="266"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="266"/>
+      <c r="Q16" s="266"/>
+      <c r="R16" s="266"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A17" s="266" t="str">
+      <c r="A17" s="247" t="str">
         <f>IFERROR(HLOOKUP(LANGUAGE,DICCIONARIO!F1:K20,20,0),LANGUAGE)</f>
         <v>PERSONALIZAR DICCIONARIO</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="266"/>
+      <c r="H17" s="266"/>
+      <c r="I17" s="266"/>
+      <c r="J17" s="266"/>
+      <c r="K17" s="266"/>
+      <c r="L17" s="266"/>
+      <c r="M17" s="266"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266"/>
+      <c r="P17" s="266"/>
+      <c r="Q17" s="266"/>
+      <c r="R17" s="266"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="266"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="266"/>
+      <c r="K18" s="266"/>
+      <c r="L18" s="266"/>
+      <c r="M18" s="266"/>
+      <c r="N18" s="266"/>
+      <c r="O18" s="266"/>
+      <c r="P18" s="266"/>
+      <c r="Q18" s="266"/>
+      <c r="R18" s="266"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A19" s="266"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="256"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="256"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="256"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="266"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="266"/>
+      <c r="H19" s="266"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="266"/>
+      <c r="K19" s="266"/>
+      <c r="L19" s="266"/>
+      <c r="M19" s="266"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="266"/>
+      <c r="P19" s="266"/>
+      <c r="Q19" s="266"/>
+      <c r="R19" s="266"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="256"/>
-      <c r="K20" s="256"/>
-      <c r="L20" s="256"/>
-      <c r="M20" s="256"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
-      <c r="R20" s="256"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="266"/>
+      <c r="F20" s="266"/>
+      <c r="G20" s="266"/>
+      <c r="H20" s="266"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="266"/>
+      <c r="K20" s="266"/>
+      <c r="L20" s="266"/>
+      <c r="M20" s="266"/>
+      <c r="N20" s="266"/>
+      <c r="O20" s="266"/>
+      <c r="P20" s="266"/>
+      <c r="Q20" s="266"/>
+      <c r="R20" s="266"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="256"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
-      <c r="R21" s="256"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="266"/>
+      <c r="K21" s="266"/>
+      <c r="L21" s="266"/>
+      <c r="M21" s="266"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="266"/>
+      <c r="P21" s="266"/>
+      <c r="Q21" s="266"/>
+      <c r="R21" s="266"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -22157,172 +22196,172 @@
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4"/>
-      <c r="C23" s="257" t="str">
+      <c r="C23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_10_"&amp;IDIOMA)</f>
         <v>OM 1R</v>
       </c>
-      <c r="D23" s="258"/>
-      <c r="E23" s="257" t="str">
+      <c r="D23" s="267"/>
+      <c r="E23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_11_"&amp;IDIOMA)</f>
         <v>OM +R</v>
       </c>
-      <c r="F23" s="259"/>
-      <c r="G23" s="257" t="str">
+      <c r="F23" s="257"/>
+      <c r="G23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_12_"&amp;IDIOMA)</f>
         <v>VF</v>
       </c>
-      <c r="H23" s="259"/>
-      <c r="I23" s="257" t="str">
+      <c r="H23" s="257"/>
+      <c r="I23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_13_"&amp;IDIOMA)</f>
         <v>EM</v>
       </c>
-      <c r="J23" s="258"/>
-      <c r="K23" s="257" t="str">
+      <c r="J23" s="267"/>
+      <c r="K23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_14_"&amp;IDIOMA)</f>
         <v>RC</v>
       </c>
-      <c r="L23" s="259"/>
-      <c r="M23" s="257" t="str">
+      <c r="L23" s="257"/>
+      <c r="M23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_15_"&amp;IDIOMA)</f>
         <v>PP</v>
       </c>
-      <c r="N23" s="259"/>
-      <c r="O23" s="257" t="str">
+      <c r="N23" s="257"/>
+      <c r="O23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_31_"&amp;IDIOMA)</f>
         <v>EN</v>
       </c>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="257" t="str">
+      <c r="P23" s="257"/>
+      <c r="Q23" s="256" t="str">
         <f ca="1">INDIRECT("Z_BP_16_"&amp;IDIOMA)</f>
         <v>CL</v>
       </c>
-      <c r="R23" s="259"/>
+      <c r="R23" s="257"/>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B24" s="4"/>
-      <c r="C24" s="248" t="str">
+      <c r="C24" s="273" t="str">
         <f ca="1">INDIRECT("Z_IN_08_"&amp;IDIOMA)</f>
         <v xml:space="preserve">Opción Múltiple 1R </v>
       </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249" t="str">
+      <c r="D24" s="258"/>
+      <c r="E24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_09_"&amp;IDIOMA)</f>
         <v xml:space="preserve">Opción Múltiple +R </v>
       </c>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249" t="str">
+      <c r="F24" s="258"/>
+      <c r="G24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_10_"&amp;IDIOMA)</f>
         <v>Verdadero/Falso</v>
       </c>
-      <c r="H24" s="249"/>
-      <c r="I24" s="249" t="str">
+      <c r="H24" s="258"/>
+      <c r="I24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_11_"&amp;IDIOMA)</f>
         <v>Emparejar</v>
       </c>
-      <c r="J24" s="249"/>
-      <c r="K24" s="249" t="str">
+      <c r="J24" s="258"/>
+      <c r="K24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_12_"&amp;IDIOMA)</f>
         <v>Respuesta Corta</v>
       </c>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249" t="str">
+      <c r="L24" s="258"/>
+      <c r="M24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_13_"&amp;IDIOMA)</f>
         <v>Palabra Perdida</v>
       </c>
-      <c r="N24" s="249"/>
-      <c r="O24" s="249" t="str">
+      <c r="N24" s="258"/>
+      <c r="O24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_16_"&amp;IDIOMA)</f>
         <v>Ensayo</v>
       </c>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="249" t="str">
+      <c r="P24" s="258"/>
+      <c r="Q24" s="258" t="str">
         <f ca="1">INDIRECT("Z_IN_14_"&amp;IDIOMA)</f>
         <v>Cloze</v>
       </c>
-      <c r="R24" s="274"/>
+      <c r="R24" s="260"/>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="251"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="251"/>
-      <c r="O25" s="251"/>
-      <c r="P25" s="251"/>
-      <c r="Q25" s="251"/>
-      <c r="R25" s="275"/>
+      <c r="C25" s="274"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="259"/>
+      <c r="K25" s="259"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="259"/>
+      <c r="N25" s="259"/>
+      <c r="O25" s="259"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="259"/>
+      <c r="R25" s="261"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4"/>
-      <c r="C26" s="245" t="str">
+      <c r="C26" s="270" t="str">
         <f ca="1">'Datos OM'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>3 Preguntas</v>
       </c>
-      <c r="D26" s="247"/>
-      <c r="E26" s="245" t="str">
+      <c r="D26" s="272"/>
+      <c r="E26" s="270" t="str">
         <f ca="1">'Datos O2'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>2 Preguntas</v>
       </c>
-      <c r="F26" s="246"/>
-      <c r="G26" s="245" t="str">
+      <c r="F26" s="271"/>
+      <c r="G26" s="270" t="str">
         <f ca="1">'Datos VF'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>2 Preguntas</v>
       </c>
-      <c r="H26" s="246"/>
-      <c r="I26" s="245" t="str">
+      <c r="H26" s="271"/>
+      <c r="I26" s="270" t="str">
         <f ca="1">'Datos EM'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>3 Preguntas</v>
       </c>
-      <c r="J26" s="247"/>
-      <c r="K26" s="245" t="str">
+      <c r="J26" s="272"/>
+      <c r="K26" s="270" t="str">
         <f ca="1">'Datos RC'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>2 Preguntas</v>
       </c>
-      <c r="L26" s="246"/>
-      <c r="M26" s="245" t="str">
+      <c r="L26" s="271"/>
+      <c r="M26" s="270" t="str">
         <f ca="1">'Datos PP'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>2 Preguntas</v>
       </c>
-      <c r="N26" s="246"/>
-      <c r="O26" s="245" t="str">
+      <c r="N26" s="271"/>
+      <c r="O26" s="270" t="str">
         <f ca="1">'Datos EN'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
         <v>2 Preguntas</v>
       </c>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="245" t="str">
+      <c r="P26" s="271"/>
+      <c r="Q26" s="270" t="str">
         <f ca="1">'Datos CL'!G2&amp;" "&amp;INDIRECT("Z_IN_15_"&amp;IDIOMA)</f>
-        <v>1 Preguntas</v>
-      </c>
-      <c r="R26" s="246"/>
+        <v>3 Preguntas</v>
+      </c>
+      <c r="R26" s="271"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="267" t="str">
+      <c r="D27" s="248" t="str">
         <f ca="1">INDIRECT("Z_IN_07_"&amp;IDIOMA)</f>
         <v>Esta HOJA sirve para almacenar las preguntas y poder reutilizarlas cuando sea necesario, sin tener que volver a escribirlas para un nuevo BANCO DE PREGUNTAS.</v>
       </c>
-      <c r="E27" s="267"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="267"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
-      <c r="K27" s="267"/>
-      <c r="L27" s="267"/>
-      <c r="M27" s="267"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="248"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
       <c r="N27" s="144"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -22333,141 +22372,141 @@
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="268"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="268"/>
-      <c r="L28" s="268"/>
-      <c r="M28" s="268"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
       <c r="N28" s="145"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="244"/>
-      <c r="Q28" s="244"/>
-      <c r="R28" s="244"/>
+      <c r="P28" s="250"/>
+      <c r="Q28" s="250"/>
+      <c r="R28" s="250"/>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="268"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="268"/>
-      <c r="I29" s="268"/>
-      <c r="J29" s="268"/>
-      <c r="K29" s="268"/>
-      <c r="L29" s="268"/>
-      <c r="M29" s="268"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="249"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="249"/>
+      <c r="M29" s="249"/>
       <c r="N29" s="145"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="244"/>
-      <c r="Q29" s="244"/>
-      <c r="R29" s="244"/>
+      <c r="P29" s="250"/>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="250"/>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="268"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="268"/>
-      <c r="L30" s="268"/>
-      <c r="M30" s="268"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="249"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="249"/>
+      <c r="M30" s="249"/>
       <c r="N30" s="145"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="244"/>
-      <c r="Q30" s="244"/>
-      <c r="R30" s="244"/>
+      <c r="P30" s="250"/>
+      <c r="Q30" s="250"/>
+      <c r="R30" s="250"/>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="268"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="268"/>
-      <c r="I31" s="268"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="268"/>
-      <c r="L31" s="268"/>
-      <c r="M31" s="268"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="249"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="249"/>
+      <c r="M31" s="249"/>
       <c r="N31" s="145"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="244"/>
-      <c r="Q31" s="244"/>
-      <c r="R31" s="244"/>
+      <c r="P31" s="250"/>
+      <c r="Q31" s="250"/>
+      <c r="R31" s="250"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="268"/>
-      <c r="I32" s="268"/>
-      <c r="J32" s="268"/>
-      <c r="K32" s="268"/>
-      <c r="L32" s="268"/>
-      <c r="M32" s="268"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
+      <c r="M32" s="249"/>
       <c r="N32" s="145"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="244"/>
-      <c r="Q32" s="244"/>
-      <c r="R32" s="244"/>
+      <c r="P32" s="250"/>
+      <c r="Q32" s="250"/>
+      <c r="R32" s="250"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="268"/>
-      <c r="I33" s="268"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="268"/>
-      <c r="L33" s="268"/>
-      <c r="M33" s="268"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="249"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="249"/>
+      <c r="M33" s="249"/>
       <c r="N33" s="145"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="244"/>
-      <c r="Q33" s="244"/>
-      <c r="R33" s="244"/>
+      <c r="P33" s="250"/>
+      <c r="Q33" s="250"/>
+      <c r="R33" s="250"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="268"/>
-      <c r="E34" s="268"/>
-      <c r="F34" s="268"/>
-      <c r="G34" s="268"/>
-      <c r="H34" s="268"/>
-      <c r="I34" s="268"/>
-      <c r="J34" s="268"/>
-      <c r="K34" s="268"/>
-      <c r="L34" s="268"/>
-      <c r="M34" s="268"/>
+      <c r="D34" s="249"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="249"/>
+      <c r="H34" s="249"/>
+      <c r="I34" s="249"/>
+      <c r="J34" s="249"/>
+      <c r="K34" s="249"/>
+      <c r="L34" s="249"/>
+      <c r="M34" s="249"/>
       <c r="N34" s="145"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="244"/>
-      <c r="Q34" s="244"/>
-      <c r="R34" s="244"/>
+      <c r="P34" s="250"/>
+      <c r="Q34" s="250"/>
+      <c r="R34" s="250"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -22582,8 +22621,34 @@
     </row>
     <row r="47" spans="1:19" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="B4ZtyPI8lv6/MGOS3+9a5fUlVKn8W7m5tc5qom7GwcpKDO4mxFaT3Eq647jn8+lsT+zoaLPf06hAUqFkuo98DA==" saltValue="Oavj1BI2LOGiAwJ94csGEA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="42">
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="D11:R21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="N5:O10"/>
+    <mergeCell ref="F5:G10"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A17:A19"/>
@@ -22600,34 +22665,8 @@
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="M24:N25"/>
     <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="D11:R21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N5:O10"/>
-    <mergeCell ref="F5:G10"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:H25"/>
-    <mergeCell ref="I24:J25"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11:A13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$39:$A$46</formula1>
     </dataValidation>
@@ -22659,7 +22698,7 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" zeroHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" zeroHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.64453125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="2" max="3" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -27784,13 +27823,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="EFvDi3MSRW73NdIsYvAsc+BhgNAxKxcPxTt3ACKCjR73QNbhqIfRpAgCELXZUjGGqLKgcIubArfstFoT9O9iow==" saltValue="M4mqjZOIoId7mfBIEVvyPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="F3:F53 F55">
-    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F66">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W38:W43 X3:X29" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -27822,7 +27861,7 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -28197,14 +28236,15 @@
       <c r="AI5" s="86"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.5">
-      <c r="A6" s="150">
+      <c r="A6" s="276">
         <f>IF(COUNTIF(Tabla_OM[[#This Row],[Puntos 1]:[Puntos 6]],"&gt;0")=0,"",COUNTIF(Tabla_OM[[#This Row],[Puntos 1]:[Puntos 6]],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="B6" s="150">
+      <c r="B6" s="276">
         <f>IF(Tabla_OM[[#This Row],[NRC]]="","",COUNTA(Tabla_OM[[#This Row],[Respuesta 1]:[Respuesta 6]])-Tabla_OM[[#This Row],[NRC]])</f>
         <v>5</v>
       </c>
+      <c r="C6" s="277"/>
       <c r="D6" s="23"/>
       <c r="E6" s="77" t="s">
         <v>846</v>
@@ -28269,14 +28309,15 @@
       <c r="AI6" s="86"/>
     </row>
     <row r="7" spans="1:35" ht="35" x14ac:dyDescent="0.5">
-      <c r="A7" s="150">
+      <c r="A7" s="276">
         <f>IF(COUNTIF(Tabla_OM[[#This Row],[Puntos 1]:[Puntos 6]],"&gt;0")=0,"",COUNTIF(Tabla_OM[[#This Row],[Puntos 1]:[Puntos 6]],"&gt;0"))</f>
         <v>1</v>
       </c>
-      <c r="B7" s="150">
+      <c r="B7" s="276">
         <f>IF(Tabla_OM[[#This Row],[NRC]]="","",COUNTA(Tabla_OM[[#This Row],[Respuesta 1]:[Respuesta 6]])-Tabla_OM[[#This Row],[NRC]])</f>
         <v>2</v>
       </c>
+      <c r="C7" s="277"/>
       <c r="D7" s="23"/>
       <c r="E7" s="77" t="s">
         <v>854</v>
@@ -28323,7 +28364,7 @@
       <c r="AI7" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YOB91Fuj+3u4WDaED5n4f/OaN9EH1K6IQ8aMqpaZE1friiufMmsqv+6lE1Prqoo8BoJeyYO5fbOV5UvFJ7y7Gg==" saltValue="ymliw0ucuCB2vrjEGbGfug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e+KXxJ2EFEa0DVlQb2wg6Nd4cBMkbp73JolMiTL0N+rNrAZHXp8G6MreIZ7zotWjDSpHyxEa7ipAb2UgKiYo0Q==" saltValue="S3bcZyJo9GSswG07sXWjtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -28345,7 +28386,7 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -28716,14 +28757,15 @@
       <c r="AI5" s="86"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.5">
-      <c r="A6" s="150">
+      <c r="A6" s="278">
         <f>IF(COUNTIF(Tabla_O2[[#This Row],[Puntos 1]:[Puntos 6]],"&gt;0")=0,"",COUNTIF(Tabla_O2[[#This Row],[Puntos 1]:[Puntos 6]],"&gt;0"))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="150">
+      <c r="B6" s="278">
         <f>IF(Tabla_O2[[#This Row],[NRC]]="","",COUNTA(Tabla_O2[[#This Row],[Respuesta 1]:[Respuesta 6]])-Tabla_O2[[#This Row],[NRC]])</f>
         <v>4</v>
       </c>
+      <c r="C6" s="277"/>
       <c r="D6" s="23"/>
       <c r="E6" s="77" t="s">
         <v>846</v>
@@ -28790,7 +28832,7 @@
       <c r="AI6" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2WSvFVy4FC/5b5Rn3OwjnoztJ5DGt8fFxlcgnj8cahRlmYPS+giG9VqSQIZQy8PtleU9yKtUa9bJyejLnRM48Q==" saltValue="006DGcNIV2yuDetjL9P2Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0SYoKaYz4mV66vjoYDXlJwyBClpfYMoC+mdGRJRYSKHv/WSNWtcNr1kRqkqfOTV5yaNMgAbXzDbb1SDY267Hqg==" saltValue="mbRqbQ+OwF2+yy9RFrM2Aw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -28811,7 +28853,7 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -29107,8 +29149,9 @@
       <c r="AI5" s="66"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.5">
-      <c r="A6" s="172"/>
-      <c r="B6" s="172"/>
+      <c r="A6" s="279"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="23"/>
       <c r="E6" s="77" t="s">
         <v>867</v>
@@ -29161,7 +29204,7 @@
       <c r="AI6" s="66"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NKg3qVyqpFcTDr6lCVDSuGbXNLLz/HplLHHmf0kAsrWpsvlEChmIGkqhKLkhN0BcFHs5xQVCv2qLSTN8SlYM5Q==" saltValue="2Yo6J36pomd+itbUfWObFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DYJLbRTf30Ts+gZ80ucWi1F7z+Wy+W4pm8IrE8ez6Jl95e/V96V9gRqtjommOIOiV/HDVfOx5WgsRZKl3gh/IA==" saltValue="1jTAKYKi3t1ZAlyXYQ2jvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -29182,7 +29225,7 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -29590,11 +29633,12 @@
       <c r="AI5" s="86"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.5">
-      <c r="A6" s="62">
+      <c r="A6" s="280">
         <f>IF(COUNTA(Tabla_EM[[#This Row],[Pareja  01.1]:[Pareja  12.14]])/2=0,"",COUNTA(Tabla_EM[[#This Row],[Pareja  01.1]:[Pareja  12.14]])/2)</f>
         <v>12</v>
       </c>
-      <c r="B6" s="243"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="23"/>
       <c r="E6" s="77" t="s">
         <v>898</v>
@@ -29689,11 +29733,12 @@
       <c r="AI6" s="86"/>
     </row>
     <row r="7" spans="1:35" ht="143.35" x14ac:dyDescent="0.5">
-      <c r="A7" s="62">
+      <c r="A7" s="280">
         <f>IF(COUNTA(Tabla_EM[[#This Row],[Pareja  01.1]:[Pareja  12.14]])/2=0,"",COUNTA(Tabla_EM[[#This Row],[Pareja  01.1]:[Pareja  12.14]])/2)</f>
         <v>12</v>
       </c>
-      <c r="B7" s="243"/>
+      <c r="B7" s="281"/>
+      <c r="C7" s="277"/>
       <c r="D7" s="23"/>
       <c r="E7" s="77" t="s">
         <v>898</v>
@@ -29788,7 +29833,7 @@
       <c r="AI7" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n1H/OTeUoXJrijwvm33DxTt/zgnJ8szZMmzzukkgWhG3iq0AuXEJe5y+plf0NaH+cchLbrjd6WwxAxhjfAkeWg==" saltValue="3uKjaxWaU/lvD8+S6sVOjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dW3IuRkuzCkVS6iO1eqqnFq7oN3zmjUWF4W/DRdibbzQ9SRVclwRZQx1DmPfswsW29YNPnrCl10cGixSOJbIZw==" saltValue="DrN669q080D/nf8Thanyfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -29809,7 +29854,7 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3.64453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.64453125" style="2" hidden="1" customWidth="1"/>
@@ -30230,7 +30275,7 @@
       <c r="AI5" s="86"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.5">
-      <c r="A6" s="63">
+      <c r="A6" s="282">
         <f>IF(COUNTA(Tabl_RC[[#This Row],[Respuesta 01]],Tabl_RC[[#This Row],[Respuesta 02]],Tabl_RC[[#This Row],[Respuesta 03]],Tabl_RC[[#This Row],[Respuesta 04]],Tabl_RC[[#This Row],[Respuesta 05]],Tabl_RC[[#This Row],[Respuesta 06]],Tabl_RC[[#This Row],[Respuesta 07]],Tabl_RC[[#This Row],[Respuesta 08]])=0,"",
        COUNTA(Tabl_RC[[#This Row],[Respuesta 01]],Tabl_RC[[#This Row],[Respuesta 02]],Tabl_RC[[#This Row],[Respuesta 03]],Tabl_RC[[#This Row],[Respuesta 04]],Tabl_RC[[#This Row],[Respuesta 05]],Tabl_RC[[#This Row],[Respuesta 06]],Tabl_RC[[#This Row],[Respuesta 07]],Tabl_RC[[#This Row],[Respuesta 08]]))</f>
         <v>3</v>
@@ -30295,7 +30340,7 @@
       <c r="AI6" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bTBPsrt/eTYS2RZQXmEh4t2TiGrFMwfnhp5yOONDUNHhUdDE43BXTTIiEVNfJJ/wGSTE2+YHaXFL6FUoBe95Tg==" saltValue="N0IRrQIENoXrkmfrwQ6MiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6OGbqT0CPAV859AgnidCzI8295Jmv8zuSMBy6efir5ax8IWA1Bw1wzHInt3SkuCqZlN2g42wbIzqAyPXZO/++g==" saltValue="9lgpUXdNzqmQTiby/P6XpA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -30316,7 +30361,7 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -30749,11 +30794,11 @@
       <c r="AI5" s="86"/>
     </row>
     <row r="6" spans="1:35" ht="35" x14ac:dyDescent="0.5">
-      <c r="A6" s="62">
+      <c r="A6" s="280">
         <f>IF(COUNTA(Tabla_PP[[#This Row],[GP 01]:[P 12]])/2=0,"",COUNTA(Tabla_PP[[#This Row],[GP 01]:[P 12]])/2)</f>
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="283"/>
       <c r="C6" s="152"/>
       <c r="D6" s="152"/>
       <c r="E6" s="119" t="s">
@@ -30849,7 +30894,7 @@
       <c r="AI6" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q/kX9mmsMTxbUH4yKTpaXKi9Vs2QfN+6Fh0+QKfm8dCFznO4gLvwmL4XMC6SBPwOBeHodQ8m19W5Ma+sX+skIw==" saltValue="fWx9PfENFLyT1DMn4inRhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rmnkGEaULwNKbbzmA7G+saM8dn7vZmxd1Eer8WLQ2Bj3L3iEfIAM/gFhQCOxLg2AjjnG0ZXzhgFTk/NFnjhjLg==" saltValue="JmYpTZZit0MeCxKdqGkp3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -30870,7 +30915,7 @@
       <selection pane="bottomRight" activeCell="E5" sqref="E5:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -31172,8 +31217,8 @@
       <c r="AI5" s="86"/>
     </row>
     <row r="6" spans="1:35" ht="23.35" x14ac:dyDescent="0.5">
-      <c r="A6" s="175"/>
-      <c r="B6" s="176"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="285"/>
       <c r="C6" s="152"/>
       <c r="D6" s="152"/>
       <c r="E6" s="119" t="s">
@@ -31227,12 +31272,12 @@
       <c r="AI6" s="86"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BrsqAkMZfpaXGnm+GobHeaZGB1te8QV9HKXY9Uc9Z5FE5aOQ8QuBGkMoxmnXog/OBv2fsLEZb2WmG+SFAeI3uw==" saltValue="EHduCJuJzUnEVv5MZa7WIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BBeQhdkblKs4iKP+ONYZdJXb94uJQx9a3BK104189hf6WDrbzzBlPxqWh8yo87coL/tPFZX9CgjXmUc63uPunQ==" saltValue="4BG3fiYzhQ3Yn5O2UY8j8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <conditionalFormatting sqref="G5:K6">
-    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31247,16 +31292,16 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja_28"/>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:AI5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="2" width="3.64453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.52734375" hidden="1" customWidth="1"/>
@@ -31319,12 +31364,12 @@
       </c>
       <c r="G2" s="34">
         <f>COUNTA(Tabla_CL[Enunciado])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="276"/>
-      <c r="B3" s="276"/>
+      <c r="A3" s="275"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="22" t="str">
@@ -31507,9 +31552,11 @@
         <v>967</v>
       </c>
       <c r="G5" s="163">
-        <v>10</v>
-      </c>
-      <c r="H5" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="25">
+        <v>50</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="129"/>
       <c r="K5" s="130"/>
@@ -31538,8 +31585,106 @@
       <c r="AH5" s="167"/>
       <c r="AI5" s="86"/>
     </row>
+    <row r="6" spans="1:35" ht="81.7" x14ac:dyDescent="0.5">
+      <c r="A6" s="284"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="77" t="s">
+        <v>968</v>
+      </c>
+      <c r="F6" s="151" t="s">
+        <v>969</v>
+      </c>
+      <c r="G6" s="163">
+        <v>15</v>
+      </c>
+      <c r="H6" s="25">
+        <v>200</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="158"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="157"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="157"/>
+      <c r="Z6" s="157"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="157"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="164" t="s">
+        <v>919</v>
+      </c>
+      <c r="AF6" s="165" t="s">
+        <v>919</v>
+      </c>
+      <c r="AG6" s="166" t="s">
+        <v>919</v>
+      </c>
+      <c r="AH6" s="167" t="s">
+        <v>919</v>
+      </c>
+      <c r="AI6" s="86" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="23.35" x14ac:dyDescent="0.5">
+      <c r="A7" s="284"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="77" t="s">
+        <v>970</v>
+      </c>
+      <c r="F7" s="151" t="s">
+        <v>971</v>
+      </c>
+      <c r="G7" s="163">
+        <v>15</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="158"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="157"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="167"/>
+      <c r="AI7" s="86"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JH1wqX7cIEkNjhkYZWGnZ7NorGdcZxsvZFuyMtsnrJjWQvjaqjxn8GPoLvYxuphEjK+yL0MJTYyUe8o5/C4aOA==" saltValue="MRIVnwU5WVEaEeRWwamVWA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VkMO1aGRxWdXapAKKFiGj/gtr+VpC8qf2jW69x0tJhbufHK5dvYlfv85rLoh8p4stPlG2TujnJxl0CUVct5r+Q==" saltValue="Fk9YFWFIan3xDNBU602abg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
